--- a/results/best_mlp_for_each_category.xlsx
+++ b/results/best_mlp_for_each_category.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>model</t>
   </si>
   <si>
+    <t>feature_func</t>
+  </si>
+  <si>
     <t>layers</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t>validation</t>
   </si>
   <si>
-    <t>feature_func</t>
+    <t>mlp</t>
   </si>
   <si>
     <t>color_histogram</t>
@@ -58,9 +61,6 @@
     <t>rgb_cooccurrence_matrix</t>
   </si>
   <si>
-    <t>mlp</t>
-  </si>
-  <si>
     <t>[192, 3]</t>
   </si>
   <si>
@@ -73,31 +73,46 @@
     <t>[729, 3]</t>
   </si>
   <si>
-    <t>0.3</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>10000</t>
   </si>
   <si>
-    <t>50</t>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>mlp-feature_func=color_histogram-layers=[192, 3]-lr=0.3-epochs=10000-batchsize=10</t>
-  </si>
-  <si>
-    <t>mlp-feature_func=cooccurrence_matrix-layers=[64, 3]-lr=0.3-epochs=10000-batchsize=10</t>
-  </si>
-  <si>
-    <t>mlp-feature_func=deepfeatures-layers=[1024, 3]-lr=0.3-epochs=10000-batchsize=10</t>
-  </si>
-  <si>
-    <t>mlp-feature_func=edge_direction_histogram-layers=[64, 3]-lr=0.3-epochs=10000-batchsize=10</t>
-  </si>
-  <si>
-    <t>mlp-feature_func=rgb_cooccurrence_matrix-layers=[729, 3]-lr=0.3-epochs=10000-batchsize=10</t>
+    <t>mlp-feature_func=color_histogram-layers=[192, 3]-lr=0.2-epochs=100-batchsize=30</t>
+  </si>
+  <si>
+    <t>mlp-feature_func=cooccurrence_matrix-layers=[64, 3]-lr=0.002-epochs=10000-batchsize=10</t>
+  </si>
+  <si>
+    <t>mlp-feature_func=deepfeatures-layers=[1024, 3]-lr=0.01-epochs=100-batchsize=10</t>
+  </si>
+  <si>
+    <t>mlp-feature_func=edge_direction_histogram-layers=[64, 3]-lr=0.02-epochs=10000-batchsize=10</t>
+  </si>
+  <si>
+    <t>mlp-feature_func=rgb_cooccurrence_matrix-layers=[729, 3]-lr=0.02-epochs=1000-batchsize=10</t>
   </si>
 </sst>
 </file>
@@ -455,16 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,149 +501,167 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>0.7680084745762711</v>
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
       </c>
       <c r="I2">
+        <v>0.7256355932203391</v>
+      </c>
+      <c r="J2">
         <v>0.7333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3">
+        <v>0.824152542372881</v>
+      </c>
+      <c r="J3">
+        <v>0.8533333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.9933333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="H3">
-        <v>0.824152542372881</v>
-      </c>
-      <c r="I3">
-        <v>0.8533333333333331</v>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>0.7981991525423721</v>
+      </c>
+      <c r="J5">
+        <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0.9933333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <v>0.8019067796610171</v>
-      </c>
-      <c r="I5">
-        <v>0.833333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6">
-        <v>0.886652542372881</v>
+      <c r="H6" t="s">
+        <v>32</v>
       </c>
       <c r="I6">
+        <v>0.8755296610169491</v>
+      </c>
+      <c r="J6">
         <v>0.9066666666666661</v>
       </c>
     </row>
